--- a/python/openpyxl/pivot/sample.xlsx
+++ b/python/openpyxl/pivot/sample.xlsx
@@ -609,14 +609,6 @@
       <c r="F9" t="n">
         <v>14</v>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.8-1.0</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="10">
       <c r="B10" t="inlineStr">
